--- a/Weight Loss/Recomp/BodyScaleRecompNumbersMonthly.xlsx
+++ b/Weight Loss/Recomp/BodyScaleRecompNumbersMonthly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="19155" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="19155" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -141,6 +141,199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fat-%
+scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="36023680"/>
+        <c:axId val="36022144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36023680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36022144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36022144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36023680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A7 C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,11 +682,11 @@
         <v>23.16</v>
       </c>
       <c r="D2" s="3">
-        <f>C2*B2/100</f>
+        <f t="shared" ref="D2:D7" si="0">C2*B2/100</f>
         <v>44.152223999999997</v>
       </c>
       <c r="E2" s="3">
-        <f>B2*(1-C2/100)</f>
+        <f t="shared" ref="E2:E7" si="1">B2*(1-C2/100)</f>
         <v>146.487776</v>
       </c>
       <c r="F2" s="1">
@@ -522,25 +715,25 @@
         <v>22.42</v>
       </c>
       <c r="D3" s="3">
-        <f>C3*B3/100</f>
+        <f t="shared" si="0"/>
         <v>40.983760000000004</v>
       </c>
       <c r="E3" s="3">
-        <f>B3*(1-C3/100)</f>
+        <f t="shared" si="1"/>
         <v>141.81624000000002</v>
       </c>
       <c r="F3" s="1">
         <v>74</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G7" si="0">F3*B3/100</f>
+        <f t="shared" ref="G3:G7" si="2">F3*B3/100</f>
         <v>135.27200000000002</v>
       </c>
       <c r="H3" s="1">
         <v>52.8</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I7" si="1">H3*B3/100</f>
+        <f t="shared" ref="I3:I7" si="3">H3*B3/100</f>
         <v>96.5184</v>
       </c>
     </row>
@@ -555,25 +748,25 @@
         <v>22.17</v>
       </c>
       <c r="D4" s="3">
-        <f>C4*B4/100</f>
+        <f t="shared" si="0"/>
         <v>39.655479000000007</v>
       </c>
       <c r="E4" s="3">
-        <f>B4*(1-C4/100)</f>
+        <f t="shared" si="1"/>
         <v>139.21452099999999</v>
       </c>
       <c r="F4" s="1">
         <v>73.900000000000006</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132.18493000000001</v>
       </c>
       <c r="H4" s="1">
         <v>52.6</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.085620000000006</v>
       </c>
     </row>
@@ -588,25 +781,25 @@
         <v>20.7</v>
       </c>
       <c r="D5" s="3">
-        <f>C5*B5/100</f>
+        <f t="shared" si="0"/>
         <v>36.682469999999995</v>
       </c>
       <c r="E5" s="3">
-        <f>B5*(1-C5/100)</f>
+        <f t="shared" si="1"/>
         <v>140.52753000000001</v>
       </c>
       <c r="F5" s="1">
         <v>75.3</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>133.43913000000001</v>
       </c>
       <c r="H5" s="1">
         <v>53.7</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95.161770000000018</v>
       </c>
     </row>
@@ -621,25 +814,25 @@
         <v>20.56</v>
       </c>
       <c r="D6" s="3">
-        <f>C6*B6/100</f>
+        <f t="shared" si="0"/>
         <v>35.494783999999996</v>
       </c>
       <c r="E6" s="3">
-        <f>B6*(1-C6/100)</f>
+        <f t="shared" si="1"/>
         <v>137.14521599999998</v>
       </c>
       <c r="F6" s="1">
         <v>76.400000000000006</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>131.89696000000001</v>
       </c>
       <c r="H6" s="1">
         <v>53.5</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92.362399999999994</v>
       </c>
     </row>
@@ -654,25 +847,25 @@
         <v>19.53</v>
       </c>
       <c r="D7" s="3">
-        <f>C7*B7/100</f>
+        <f t="shared" si="0"/>
         <v>33.408017999999998</v>
       </c>
       <c r="E7" s="3">
-        <f>B7*(1-C7/100)</f>
+        <f t="shared" si="1"/>
         <v>137.651982</v>
       </c>
       <c r="F7" s="1">
         <v>76.400000000000006</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130.68984</v>
       </c>
       <c r="H7" s="1">
         <v>54.3</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92.88557999999999</v>
       </c>
     </row>
@@ -685,37 +878,38 @@
         <v>-19.579999999999984</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:I8" si="2">C7-C2</f>
+        <f t="shared" ref="C8:I8" si="4">C7-C2</f>
         <v>-3.629999999999999</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-10.744205999999998</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.8357939999999928</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2000000000000028</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.0458399999999983</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.0097799999999921</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Weight Loss/Recomp/BodyScaleRecompNumbersMonthly.xlsx
+++ b/Weight Loss/Recomp/BodyScaleRecompNumbersMonthly.xlsx
@@ -187,10 +187,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43040</c:v>
                 </c:pt>
@@ -208,16 +208,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23.16</c:v>
                 </c:pt>
@@ -235,6 +238,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -249,11 +255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="36023680"/>
-        <c:axId val="36022144"/>
+        <c:axId val="124007936"/>
+        <c:axId val="124009472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36023680"/>
+        <c:axId val="124007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,12 +269,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36022144"/>
+        <c:crossAx val="124009472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36022144"/>
+        <c:axId val="124009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36023680"/>
+        <c:crossAx val="124007936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -305,16 +311,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A7 C1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,11 +688,11 @@
         <v>23.16</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D7" si="0">C2*B2/100</f>
+        <f t="shared" ref="D2:D8" si="0">C2*B2/100</f>
         <v>44.152223999999997</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E7" si="1">B2*(1-C2/100)</f>
+        <f t="shared" ref="E2:E8" si="1">B2*(1-C2/100)</f>
         <v>146.487776</v>
       </c>
       <c r="F2" s="1">
@@ -726,14 +732,14 @@
         <v>74</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G7" si="2">F3*B3/100</f>
+        <f t="shared" ref="G3:G8" si="2">F3*B3/100</f>
         <v>135.27200000000002</v>
       </c>
       <c r="H3" s="1">
         <v>52.8</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I7" si="3">H3*B3/100</f>
+        <f t="shared" ref="I3:I8" si="3">H3*B3/100</f>
         <v>96.5184</v>
       </c>
     </row>
@@ -870,38 +876,71 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B8" s="1">
+        <v>168.2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>30.276</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>137.92400000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>131.02780000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>93.519199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <f>B7-B2</f>
-        <v>-19.579999999999984</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:I8" si="4">C7-C2</f>
-        <v>-3.629999999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="4"/>
+      <c r="B9" s="1">
+        <f>B8-B2</f>
+        <v>-22.439999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C8-C2</f>
+        <v>-5.16</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="C9:I9" si="4">D7-D2</f>
         <v>-10.744205999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="4"/>
         <v>-8.8357939999999928</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <f t="shared" si="4"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="4"/>
         <v>-5.0458399999999983</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="4"/>
         <v>1.8999999999999986</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="4"/>
         <v>-7.0097799999999921</v>
       </c>
